--- a/WriteData/operators.xlsx
+++ b/WriteData/operators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Web\ArknightsTools\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Web\ArknightsTools\WriteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE6CEF7-A0C9-42A7-8130-3DDB87DC79CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5158F-88F1-4DAC-B023-BAFBB8FFBEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="463">
   <si>
     <t>codeName</t>
   </si>
@@ -1385,6 +1385,30 @@
   </si>
   <si>
     <t>Gnosis</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>Sideroca</t>
+  </si>
+  <si>
+    <t>Lava the Purgatory</t>
+  </si>
+  <si>
+    <t>Originium crystals distributed across surface of her body, confirmed Infected by medical examination</t>
+  </si>
+  <si>
+    <t>Skadi the Corrupting Heart</t>
+  </si>
+  <si>
+    <t>Medical tests have confirmed that no infection is present. The following discussion summaries are all based upon observations and calculations of the person in question's cell proliferation status</t>
+  </si>
+  <si>
+    <t>Ch'en the Holungday</t>
+  </si>
+  <si>
+    <t>Nearl the Radiant Knight</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1416,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmm\ d"/>
+    <numFmt numFmtId="164" formatCode="mmm\ d"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1873,7 +1897,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2229,29 +2253,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L212"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="154.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="161.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2288,8 +2314,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2326,8 +2355,11 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2364,8 +2396,11 @@
       <c r="L3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2402,8 +2437,11 @@
       <c r="L4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2440,8 +2478,11 @@
       <c r="L5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2478,8 +2519,11 @@
       <c r="L6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2516,8 +2560,11 @@
       <c r="L7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2554,8 +2601,11 @@
       <c r="L8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2592,8 +2642,11 @@
       <c r="L9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2630,8 +2683,11 @@
       <c r="L10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2668,8 +2724,11 @@
       <c r="L11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2706,8 +2765,11 @@
       <c r="L12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2744,8 +2806,11 @@
       <c r="L13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2782,8 +2847,11 @@
       <c r="L14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2820,8 +2888,11 @@
       <c r="L15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2858,8 +2929,11 @@
       <c r="L16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2896,8 +2970,11 @@
       <c r="L17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2934,8 +3011,11 @@
       <c r="L18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -2972,8 +3052,11 @@
       <c r="L19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3010,8 +3093,11 @@
       <c r="L20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -3048,8 +3134,11 @@
       <c r="L21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -3086,8 +3175,11 @@
       <c r="L22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3216,11 @@
       <c r="L23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3162,8 +3257,11 @@
       <c r="L24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3200,8 +3298,11 @@
       <c r="L25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -3238,8 +3339,11 @@
       <c r="L26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -3276,8 +3380,11 @@
       <c r="L27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3314,8 +3421,11 @@
       <c r="L28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -3352,8 +3462,11 @@
       <c r="L29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -3390,8 +3503,11 @@
       <c r="L30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -3428,8 +3544,11 @@
       <c r="L31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -3466,8 +3585,11 @@
       <c r="L32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -3504,8 +3626,11 @@
       <c r="L33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -3542,8 +3667,11 @@
       <c r="L34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -3580,8 +3708,11 @@
       <c r="L35" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -3618,8 +3749,11 @@
       <c r="L36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -3656,8 +3790,11 @@
       <c r="L37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -3694,8 +3831,11 @@
       <c r="L38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3732,8 +3872,11 @@
       <c r="L39" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -3770,8 +3913,11 @@
       <c r="L40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -3808,8 +3954,11 @@
       <c r="L41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>141</v>
       </c>
@@ -3846,8 +3995,11 @@
       <c r="L42" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -3884,8 +4036,11 @@
       <c r="L43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -3922,8 +4077,11 @@
       <c r="L44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>150</v>
       </c>
@@ -3960,8 +4118,11 @@
       <c r="L45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -3998,8 +4159,11 @@
       <c r="L46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -4036,8 +4200,11 @@
       <c r="L47" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -4074,8 +4241,11 @@
       <c r="L48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -4112,8 +4282,11 @@
       <c r="L49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -4150,8 +4323,11 @@
       <c r="L50" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -4188,8 +4364,11 @@
       <c r="L51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -4226,8 +4405,11 @@
       <c r="L52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>170</v>
       </c>
@@ -4264,8 +4446,11 @@
       <c r="L53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -4302,8 +4487,11 @@
       <c r="L54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -4340,8 +4528,11 @@
       <c r="L55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -4378,8 +4569,11 @@
       <c r="L56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -4416,8 +4610,11 @@
       <c r="L57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -4454,8 +4651,11 @@
       <c r="L58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -4492,8 +4692,11 @@
       <c r="L59" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -4530,8 +4733,11 @@
       <c r="L60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -4568,8 +4774,11 @@
       <c r="L61" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -4606,8 +4815,11 @@
       <c r="L62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -4644,8 +4856,11 @@
       <c r="L63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -4682,8 +4897,11 @@
       <c r="L64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -4720,8 +4938,11 @@
       <c r="L65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -4758,8 +4979,11 @@
       <c r="L66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -4796,8 +5020,11 @@
       <c r="L67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -4834,8 +5061,11 @@
       <c r="L68" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -4872,8 +5102,11 @@
       <c r="L69" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -4910,8 +5143,11 @@
       <c r="L70" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>206</v>
       </c>
@@ -4948,8 +5184,11 @@
       <c r="L71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>209</v>
       </c>
@@ -4986,8 +5225,11 @@
       <c r="L72" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -5024,8 +5266,11 @@
       <c r="L73" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -5062,8 +5307,11 @@
       <c r="L74" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>215</v>
       </c>
@@ -5100,8 +5348,11 @@
       <c r="L75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>217</v>
       </c>
@@ -5138,8 +5389,11 @@
       <c r="L76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -5176,8 +5430,11 @@
       <c r="L77" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -5214,8 +5471,11 @@
       <c r="L78" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>225</v>
       </c>
@@ -5252,8 +5512,11 @@
       <c r="L79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -5290,8 +5553,11 @@
       <c r="L80" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>229</v>
       </c>
@@ -5328,8 +5594,11 @@
       <c r="L81" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>231</v>
       </c>
@@ -5366,8 +5635,11 @@
       <c r="L82" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -5404,8 +5676,11 @@
       <c r="L83" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>234</v>
       </c>
@@ -5442,8 +5717,11 @@
       <c r="L84" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>236</v>
       </c>
@@ -5480,8 +5758,11 @@
       <c r="L85" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>238</v>
       </c>
@@ -5518,8 +5799,11 @@
       <c r="L86" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>240</v>
       </c>
@@ -5556,8 +5840,11 @@
       <c r="L87" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>243</v>
       </c>
@@ -5594,8 +5881,11 @@
       <c r="L88" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>246</v>
       </c>
@@ -5632,8 +5922,11 @@
       <c r="L89" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -5670,8 +5963,11 @@
       <c r="L90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>249</v>
       </c>
@@ -5708,8 +6004,11 @@
       <c r="L91" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5746,8 +6045,11 @@
       <c r="L92" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -5784,8 +6086,11 @@
       <c r="L93" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>257</v>
       </c>
@@ -5822,8 +6127,11 @@
       <c r="L94" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>258</v>
       </c>
@@ -5860,8 +6168,11 @@
       <c r="L95" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -5898,8 +6209,11 @@
       <c r="L96" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>261</v>
       </c>
@@ -5936,8 +6250,11 @@
       <c r="L97" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -5974,8 +6291,11 @@
       <c r="L98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>265</v>
       </c>
@@ -6012,8 +6332,11 @@
       <c r="L99" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -6050,8 +6373,11 @@
       <c r="L100" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -6088,8 +6414,11 @@
       <c r="L101" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -6126,8 +6455,11 @@
       <c r="L102" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>274</v>
       </c>
@@ -6164,8 +6496,11 @@
       <c r="L103" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>276</v>
       </c>
@@ -6202,8 +6537,11 @@
       <c r="L104" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>278</v>
       </c>
@@ -6240,8 +6578,11 @@
       <c r="L105" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>280</v>
       </c>
@@ -6278,8 +6619,11 @@
       <c r="L106" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>282</v>
       </c>
@@ -6316,8 +6660,11 @@
       <c r="L107" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>284</v>
       </c>
@@ -6354,8 +6701,11 @@
       <c r="L108" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -6392,8 +6742,11 @@
       <c r="L109" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -6430,8 +6783,11 @@
       <c r="L110" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>292</v>
       </c>
@@ -6468,8 +6824,11 @@
       <c r="L111" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>294</v>
       </c>
@@ -6506,8 +6865,11 @@
       <c r="L112" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>295</v>
       </c>
@@ -6544,8 +6906,11 @@
       <c r="L113" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>296</v>
       </c>
@@ -6582,8 +6947,11 @@
       <c r="L114" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>299</v>
       </c>
@@ -6620,8 +6988,11 @@
       <c r="L115" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>301</v>
       </c>
@@ -6658,8 +7029,11 @@
       <c r="L116" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>302</v>
       </c>
@@ -6696,8 +7070,11 @@
       <c r="L117" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>303</v>
       </c>
@@ -6734,8 +7111,11 @@
       <c r="L118" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>304</v>
       </c>
@@ -6772,8 +7152,11 @@
       <c r="L119" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>305</v>
       </c>
@@ -6810,8 +7193,11 @@
       <c r="L120" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>306</v>
       </c>
@@ -6848,8 +7234,11 @@
       <c r="L121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>308</v>
       </c>
@@ -6886,8 +7275,11 @@
       <c r="L122" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>309</v>
       </c>
@@ -6924,8 +7316,11 @@
       <c r="L123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>312</v>
       </c>
@@ -6962,8 +7357,11 @@
       <c r="L124" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>314</v>
       </c>
@@ -7000,8 +7398,11 @@
       <c r="L125" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>315</v>
       </c>
@@ -7038,8 +7439,11 @@
       <c r="L126" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>317</v>
       </c>
@@ -7076,8 +7480,11 @@
       <c r="L127" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>318</v>
       </c>
@@ -7114,8 +7521,11 @@
       <c r="L128" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>319</v>
       </c>
@@ -7152,8 +7562,11 @@
       <c r="L129" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>320</v>
       </c>
@@ -7190,8 +7603,11 @@
       <c r="L130" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>321</v>
       </c>
@@ -7228,8 +7644,11 @@
       <c r="L131" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>323</v>
       </c>
@@ -7266,8 +7685,11 @@
       <c r="L132" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>324</v>
       </c>
@@ -7304,8 +7726,11 @@
       <c r="L133" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>325</v>
       </c>
@@ -7342,8 +7767,11 @@
       <c r="L134" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>327</v>
       </c>
@@ -7380,8 +7808,11 @@
       <c r="L135" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>329</v>
       </c>
@@ -7418,8 +7849,11 @@
       <c r="L136" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>331</v>
       </c>
@@ -7456,8 +7890,11 @@
       <c r="L137" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7494,8 +7931,11 @@
       <c r="L138" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>333</v>
       </c>
@@ -7532,8 +7972,11 @@
       <c r="L139" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>335</v>
       </c>
@@ -7570,8 +8013,11 @@
       <c r="L140" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -7608,8 +8054,11 @@
       <c r="L141" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>339</v>
       </c>
@@ -7646,8 +8095,11 @@
       <c r="L142" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>341</v>
       </c>
@@ -7684,8 +8136,11 @@
       <c r="L143" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>344</v>
       </c>
@@ -7722,8 +8177,11 @@
       <c r="L144" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>346</v>
       </c>
@@ -7760,8 +8218,11 @@
       <c r="L145" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>349</v>
       </c>
@@ -7798,8 +8259,11 @@
       <c r="L146" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>350</v>
       </c>
@@ -7836,8 +8300,11 @@
       <c r="L147" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>352</v>
       </c>
@@ -7874,8 +8341,11 @@
       <c r="L148" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>354</v>
       </c>
@@ -7912,8 +8382,11 @@
       <c r="L149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>356</v>
       </c>
@@ -7950,8 +8423,11 @@
       <c r="L150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>358</v>
       </c>
@@ -7988,8 +8464,11 @@
       <c r="L151" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>360</v>
       </c>
@@ -8026,8 +8505,11 @@
       <c r="L152" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>361</v>
       </c>
@@ -8064,8 +8546,11 @@
       <c r="L153" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>362</v>
       </c>
@@ -8102,8 +8587,11 @@
       <c r="L154" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>363</v>
       </c>
@@ -8140,8 +8628,11 @@
       <c r="L155" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>364</v>
       </c>
@@ -8178,8 +8669,11 @@
       <c r="L156" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>366</v>
       </c>
@@ -8216,8 +8710,11 @@
       <c r="L157" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>369</v>
       </c>
@@ -8254,8 +8751,11 @@
       <c r="L158" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>371</v>
       </c>
@@ -8292,8 +8792,11 @@
       <c r="L159" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -8330,8 +8833,11 @@
       <c r="L160" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>375</v>
       </c>
@@ -8368,8 +8874,11 @@
       <c r="L161" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>376</v>
       </c>
@@ -8406,8 +8915,11 @@
       <c r="L162" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>378</v>
       </c>
@@ -8444,8 +8956,11 @@
       <c r="L163" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>381</v>
       </c>
@@ -8482,8 +8997,11 @@
       <c r="L164" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>383</v>
       </c>
@@ -8520,8 +9038,11 @@
       <c r="L165" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>385</v>
       </c>
@@ -8558,8 +9079,11 @@
       <c r="L166" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>387</v>
       </c>
@@ -8596,8 +9120,11 @@
       <c r="L167" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>389</v>
       </c>
@@ -8634,8 +9161,11 @@
       <c r="L168" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>390</v>
       </c>
@@ -8672,8 +9202,11 @@
       <c r="L169" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>391</v>
       </c>
@@ -8710,8 +9243,11 @@
       <c r="L170" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>393</v>
       </c>
@@ -8748,8 +9284,11 @@
       <c r="L171" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>394</v>
       </c>
@@ -8786,8 +9325,11 @@
       <c r="L172" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>396</v>
       </c>
@@ -8824,8 +9366,11 @@
       <c r="L173" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>398</v>
       </c>
@@ -8862,8 +9407,11 @@
       <c r="L174" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>400</v>
       </c>
@@ -8900,8 +9448,11 @@
       <c r="L175" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>402</v>
       </c>
@@ -8938,8 +9489,11 @@
       <c r="L176" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>403</v>
       </c>
@@ -8976,8 +9530,11 @@
       <c r="L177" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>404</v>
       </c>
@@ -9014,8 +9571,11 @@
       <c r="L178" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>405</v>
       </c>
@@ -9052,8 +9612,11 @@
       <c r="L179" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>406</v>
       </c>
@@ -9090,8 +9653,11 @@
       <c r="L180" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>407</v>
       </c>
@@ -9128,8 +9694,11 @@
       <c r="L181" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>408</v>
       </c>
@@ -9166,8 +9735,11 @@
       <c r="L182" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>409</v>
       </c>
@@ -9204,8 +9776,11 @@
       <c r="L183" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>411</v>
       </c>
@@ -9242,8 +9817,11 @@
       <c r="L184" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>413</v>
       </c>
@@ -9280,8 +9858,11 @@
       <c r="L185" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>414</v>
       </c>
@@ -9318,8 +9899,11 @@
       <c r="L186" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>416</v>
       </c>
@@ -9356,8 +9940,11 @@
       <c r="L187" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>419</v>
       </c>
@@ -9394,8 +9981,11 @@
       <c r="L188" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>420</v>
       </c>
@@ -9432,8 +10022,11 @@
       <c r="L189" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>423</v>
       </c>
@@ -9470,8 +10063,11 @@
       <c r="L190" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>425</v>
       </c>
@@ -9508,8 +10104,11 @@
       <c r="L191" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>426</v>
       </c>
@@ -9546,8 +10145,11 @@
       <c r="L192" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>428</v>
       </c>
@@ -9584,8 +10186,11 @@
       <c r="L193" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>429</v>
       </c>
@@ -9622,8 +10227,11 @@
       <c r="L194" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>430</v>
       </c>
@@ -9660,8 +10268,11 @@
       <c r="L195" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>431</v>
       </c>
@@ -9698,8 +10309,11 @@
       <c r="L196" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>432</v>
       </c>
@@ -9736,8 +10350,11 @@
       <c r="L197" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>434</v>
       </c>
@@ -9774,8 +10391,11 @@
       <c r="L198" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>436</v>
       </c>
@@ -9812,8 +10432,11 @@
       <c r="L199" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>438</v>
       </c>
@@ -9850,8 +10473,11 @@
       <c r="L200" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>441</v>
       </c>
@@ -9888,8 +10514,11 @@
       <c r="L201" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>442</v>
       </c>
@@ -9926,8 +10555,11 @@
       <c r="L202" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>444</v>
       </c>
@@ -9964,8 +10596,11 @@
       <c r="L203" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>445</v>
       </c>
@@ -10002,8 +10637,11 @@
       <c r="L204" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>446</v>
       </c>
@@ -10040,8 +10678,11 @@
       <c r="L205" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>447</v>
       </c>
@@ -10078,8 +10719,11 @@
       <c r="L206" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>448</v>
       </c>
@@ -10116,8 +10760,11 @@
       <c r="L207" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>450</v>
       </c>
@@ -10154,8 +10801,11 @@
       <c r="L208" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>451</v>
       </c>
@@ -10192,8 +10842,11 @@
       <c r="L209" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -10230,8 +10883,11 @@
       <c r="L210" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>453</v>
       </c>
@@ -10268,8 +10924,11 @@
       <c r="L211" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>454</v>
       </c>
@@ -10305,6 +10964,214 @@
       </c>
       <c r="L212" t="s">
         <v>17</v>
+      </c>
+      <c r="M212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>456</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" t="s">
+        <v>133</v>
+      </c>
+      <c r="E213" s="1">
+        <v>44637</v>
+      </c>
+      <c r="F213" t="s">
+        <v>137</v>
+      </c>
+      <c r="G213">
+        <v>164</v>
+      </c>
+      <c r="H213" t="s">
+        <v>103</v>
+      </c>
+      <c r="I213" t="s">
+        <v>22</v>
+      </c>
+      <c r="J213" t="s">
+        <v>121</v>
+      </c>
+      <c r="K213">
+        <v>5</v>
+      </c>
+      <c r="L213" t="s">
+        <v>17</v>
+      </c>
+      <c r="M213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>457</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>36</v>
+      </c>
+      <c r="D214" t="s">
+        <v>62</v>
+      </c>
+      <c r="E214" s="1">
+        <v>44734</v>
+      </c>
+      <c r="F214" t="s">
+        <v>77</v>
+      </c>
+      <c r="G214">
+        <v>158</v>
+      </c>
+      <c r="H214" t="s">
+        <v>458</v>
+      </c>
+      <c r="I214" t="s">
+        <v>43</v>
+      </c>
+      <c r="J214" t="s">
+        <v>48</v>
+      </c>
+      <c r="K214">
+        <v>5</v>
+      </c>
+      <c r="L214" t="s">
+        <v>17</v>
+      </c>
+      <c r="M214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>459</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="1">
+        <v>44627</v>
+      </c>
+      <c r="F215" t="s">
+        <v>36</v>
+      </c>
+      <c r="G215">
+        <v>166</v>
+      </c>
+      <c r="H215" t="s">
+        <v>460</v>
+      </c>
+      <c r="I215" t="s">
+        <v>86</v>
+      </c>
+      <c r="J215" t="s">
+        <v>210</v>
+      </c>
+      <c r="K215">
+        <v>6</v>
+      </c>
+      <c r="L215" t="s">
+        <v>17</v>
+      </c>
+      <c r="M215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>461</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>35</v>
+      </c>
+      <c r="D216" t="s">
+        <v>151</v>
+      </c>
+      <c r="E216" s="1">
+        <v>44749</v>
+      </c>
+      <c r="F216" t="s">
+        <v>254</v>
+      </c>
+      <c r="G216">
+        <v>168</v>
+      </c>
+      <c r="H216" t="s">
+        <v>241</v>
+      </c>
+      <c r="I216" t="s">
+        <v>39</v>
+      </c>
+      <c r="J216" t="s">
+        <v>273</v>
+      </c>
+      <c r="K216">
+        <v>6</v>
+      </c>
+      <c r="L216" t="s">
+        <v>256</v>
+      </c>
+      <c r="M216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>462</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" t="s">
+        <v>51</v>
+      </c>
+      <c r="E217" s="1">
+        <v>44674</v>
+      </c>
+      <c r="F217" t="s">
+        <v>52</v>
+      </c>
+      <c r="G217">
+        <v>171</v>
+      </c>
+      <c r="H217" t="s">
+        <v>103</v>
+      </c>
+      <c r="I217" t="s">
+        <v>22</v>
+      </c>
+      <c r="J217" t="s">
+        <v>23</v>
+      </c>
+      <c r="K217">
+        <v>6</v>
+      </c>
+      <c r="L217" t="s">
+        <v>185</v>
+      </c>
+      <c r="M217" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/WriteData/operators.xlsx
+++ b/WriteData/operators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Web\ArknightsTools\WriteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5158F-88F1-4DAC-B023-BAFBB8FFBEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD429EF-B5F9-44CF-BDF8-D54DF8DD91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="463">
   <si>
     <t>codeName</t>
   </si>
@@ -100,9 +100,6 @@
     <t>8 years</t>
   </si>
   <si>
-    <t>The Far East</t>
-  </si>
-  <si>
     <t>Oni</t>
   </si>
   <si>
@@ -1409,6 +1406,9 @@
   </si>
   <si>
     <t>Nearl the Radiant Knight</t>
+  </si>
+  <si>
+    <t>Nine-Colored Deer</t>
   </si>
 </sst>
 </file>
@@ -2253,11 +2253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M217"/>
+  <dimension ref="A1:M218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2315,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2411,25 +2411,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1">
         <v>44695</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>161</v>
       </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2452,25 +2452,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>180</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -2484,34 +2484,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>44764</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>179</v>
       </c>
       <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -2534,25 +2534,25 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>44910</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>131</v>
       </c>
       <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -2566,34 +2566,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>44623</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>181</v>
       </c>
       <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -2607,34 +2607,34 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="1">
         <v>44897</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
         <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -2648,34 +2648,34 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
       </c>
       <c r="E10" s="1">
         <v>44608</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -2689,34 +2689,34 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
       </c>
       <c r="E11" s="1">
         <v>44862</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -2730,28 +2730,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
       </c>
       <c r="E12" s="1">
         <v>44639</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -2771,40 +2771,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="1">
         <v>44775</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
         <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -2812,34 +2812,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
       </c>
       <c r="E14" s="1">
         <v>44622</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>154</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
         <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2853,34 +2853,34 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
       </c>
       <c r="E15" s="1">
         <v>44887</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15">
         <v>154</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
         <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2894,34 +2894,34 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1">
         <v>44711</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16">
         <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
         <v>39</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2935,34 +2935,34 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
         <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
       </c>
       <c r="E17" s="1">
         <v>44734</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2976,28 +2976,28 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1">
         <v>44733</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -3017,28 +3017,28 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1">
         <v>44592</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -3058,34 +3058,34 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1">
         <v>44919</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20">
         <v>172</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
         <v>43</v>
-      </c>
-      <c r="J20" t="s">
-        <v>44</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -3114,19 +3114,19 @@
         <v>44576</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>172</v>
       </c>
       <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
         <v>85</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>86</v>
-      </c>
-      <c r="J21" t="s">
-        <v>87</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -3140,34 +3140,34 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
       </c>
       <c r="E22" s="1">
         <v>44563</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
         <v>43</v>
-      </c>
-      <c r="J22" t="s">
-        <v>44</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -3181,34 +3181,34 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
       </c>
       <c r="E23" s="1">
         <v>44576</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23">
         <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -3231,25 +3231,25 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1">
         <v>44623</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
         <v>39</v>
-      </c>
-      <c r="J24" t="s">
-        <v>40</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -3263,34 +3263,34 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1">
         <v>44682</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>164</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s">
         <v>39</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -3313,25 +3313,25 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1">
         <v>44762</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26">
         <v>154</v>
       </c>
       <c r="H26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
         <v>99</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s">
-        <v>100</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -3354,25 +3354,25 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1">
         <v>44625</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27">
         <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
         <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>30</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3386,34 +3386,34 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
         <v>104</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1">
         <v>44795</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28">
         <v>164</v>
       </c>
       <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
         <v>28</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>29</v>
-      </c>
-      <c r="J28" t="s">
-        <v>30</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3427,34 +3427,34 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
         <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
       </c>
       <c r="E29" s="1">
         <v>44907</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29">
         <v>142</v>
       </c>
       <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
         <v>28</v>
       </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3468,34 +3468,34 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1">
         <v>44708</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30">
         <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -3518,19 +3518,19 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E31" s="1">
         <v>44564</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>172</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -3550,13 +3550,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
         <v>113</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -3565,19 +3565,19 @@
         <v>44682</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32">
         <v>4</v>
@@ -3591,34 +3591,34 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1">
         <v>44606</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G33">
         <v>162</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3632,34 +3632,34 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
         <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
       </c>
       <c r="E34" s="1">
         <v>44792</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>154</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3673,40 +3673,40 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1">
         <v>44581</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35">
         <v>156</v>
       </c>
       <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
         <v>123</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>124</v>
-      </c>
-      <c r="J35" t="s">
-        <v>125</v>
       </c>
       <c r="K35">
         <v>4</v>
       </c>
       <c r="L35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -3723,25 +3723,25 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="1">
         <v>44655</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36">
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -3764,19 +3764,19 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1">
         <v>44686</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G37">
         <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -3805,19 +3805,19 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1">
         <v>44682</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G38">
         <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -3837,40 +3837,40 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
         <v>132</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>133</v>
       </c>
       <c r="E39" s="1">
         <v>44591</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39">
         <v>158</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K39">
         <v>4</v>
       </c>
       <c r="L39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -3878,34 +3878,34 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1">
         <v>44700</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40">
         <v>182</v>
       </c>
       <c r="H40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" t="s">
         <v>32</v>
-      </c>
-      <c r="J40" t="s">
-        <v>33</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -3919,34 +3919,34 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
         <v>138</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" t="s">
-        <v>139</v>
       </c>
       <c r="G41">
         <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" t="s">
         <v>32</v>
-      </c>
-      <c r="J41" t="s">
-        <v>33</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -3960,40 +3960,40 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
         <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s">
-        <v>142</v>
       </c>
       <c r="E42" s="1">
         <v>44836</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G42">
         <v>155</v>
       </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K42">
         <v>4</v>
       </c>
       <c r="L42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -4010,25 +4010,25 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="1">
         <v>44724</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>163</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -4051,25 +4051,25 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1">
         <v>44656</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44">
         <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" t="s">
         <v>86</v>
-      </c>
-      <c r="J44" t="s">
-        <v>87</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4083,34 +4083,34 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
         <v>150</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
       </c>
       <c r="E45" s="1">
         <v>44566</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G45">
         <v>135</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -4139,19 +4139,19 @@
         <v>44840</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G46">
         <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4165,40 +4165,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1">
         <v>44771</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47">
         <v>162</v>
       </c>
       <c r="H47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" t="s">
         <v>29</v>
-      </c>
-      <c r="J47" t="s">
-        <v>30</v>
       </c>
       <c r="K47">
         <v>5</v>
       </c>
       <c r="L47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -4221,19 +4221,19 @@
         <v>44713</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G48">
         <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" t="s">
         <v>29</v>
-      </c>
-      <c r="J48" t="s">
-        <v>30</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -4262,13 +4262,13 @@
         <v>44864</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49">
         <v>163</v>
       </c>
       <c r="H49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -4288,40 +4288,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="1">
         <v>44666</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K50">
         <v>5</v>
       </c>
       <c r="L50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
@@ -4329,34 +4329,34 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
         <v>164</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>165</v>
       </c>
       <c r="E51" s="1">
         <v>44876</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G51">
         <v>162</v>
       </c>
       <c r="H51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -4370,34 +4370,34 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
         <v>167</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" t="s">
-        <v>168</v>
       </c>
       <c r="E52" s="1">
         <v>44769</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>162</v>
       </c>
       <c r="H52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -4420,25 +4420,25 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="1">
         <v>44579</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G53">
         <v>157</v>
       </c>
       <c r="H53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s">
         <v>39</v>
-      </c>
-      <c r="J53" t="s">
-        <v>40</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -4452,34 +4452,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="1">
         <v>44605</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>160</v>
       </c>
       <c r="H54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s">
         <v>39</v>
-      </c>
-      <c r="J54" t="s">
-        <v>40</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -4493,34 +4493,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1">
         <v>44803</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55">
         <v>170</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -4543,25 +4543,25 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="1">
         <v>44918</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G56">
         <v>142</v>
       </c>
       <c r="H56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s">
         <v>43</v>
-      </c>
-      <c r="J56" t="s">
-        <v>44</v>
       </c>
       <c r="K56">
         <v>5</v>
@@ -4575,34 +4575,34 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="1">
         <v>44713</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57">
         <v>162</v>
       </c>
       <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s">
         <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>43</v>
-      </c>
-      <c r="J57" t="s">
-        <v>48</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -4631,19 +4631,19 @@
         <v>44885</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G58">
         <v>159</v>
       </c>
       <c r="H58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -4672,13 +4672,13 @@
         <v>44699</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59">
         <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
@@ -4690,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="L59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
@@ -4698,28 +4698,28 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
         <v>182</v>
       </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>183</v>
-      </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="1">
         <v>44739</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60">
         <v>157</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -4739,40 +4739,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" s="1">
         <v>44674</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G61">
         <v>171</v>
       </c>
       <c r="H61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K61">
         <v>5</v>
       </c>
       <c r="L61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M61" t="b">
         <v>0</v>
@@ -4780,34 +4780,34 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
         <v>186</v>
       </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>187</v>
-      </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62" s="1">
         <v>44798</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62">
         <v>162</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" t="s">
         <v>124</v>
-      </c>
-      <c r="J62" t="s">
-        <v>125</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -4830,25 +4830,25 @@
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" s="1">
         <v>44699</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G63">
         <v>156</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
         <v>32</v>
-      </c>
-      <c r="J63" t="s">
-        <v>33</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -4862,34 +4862,34 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" s="1">
         <v>44833</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64">
         <v>163</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" t="s">
         <v>32</v>
-      </c>
-      <c r="J64" t="s">
-        <v>33</v>
       </c>
       <c r="K64">
         <v>5</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -4912,25 +4912,25 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E65" s="1">
         <v>44681</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G65">
         <v>170</v>
       </c>
       <c r="H65" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
         <v>192</v>
-      </c>
-      <c r="I65" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" t="s">
-        <v>193</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -4944,34 +4944,34 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E66" s="1">
         <v>44895</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66">
         <v>162</v>
       </c>
       <c r="H66" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s">
         <v>195</v>
-      </c>
-      <c r="I66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J66" t="s">
-        <v>196</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -4985,34 +4985,34 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G67">
         <v>158</v>
       </c>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K67">
         <v>5</v>
@@ -5026,40 +5026,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" s="1">
         <v>44893</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68">
         <v>163</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K68">
         <v>5</v>
       </c>
       <c r="L68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
@@ -5067,40 +5067,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E69" s="1">
         <v>44605</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69">
         <v>161</v>
       </c>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K69">
         <v>5</v>
       </c>
       <c r="L69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -5117,31 +5117,31 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E70" s="1">
         <v>44826</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G70">
         <v>156</v>
       </c>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" t="s">
         <v>86</v>
-      </c>
-      <c r="J70" t="s">
-        <v>87</v>
       </c>
       <c r="K70">
         <v>5</v>
       </c>
       <c r="L70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
@@ -5149,34 +5149,34 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
         <v>206</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" t="s">
-        <v>207</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G71">
         <v>155</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K71">
         <v>5</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -5199,25 +5199,25 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="1">
         <v>44816</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G72">
         <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K72">
         <v>5</v>
@@ -5231,34 +5231,34 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
         <v>211</v>
-      </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" t="s">
-        <v>212</v>
       </c>
       <c r="E73" s="1">
         <v>44783</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G73">
         <v>160</v>
       </c>
       <c r="H73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
@@ -5281,31 +5281,31 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E74" s="1">
         <v>44919</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G74">
         <v>159</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s">
         <v>39</v>
-      </c>
-      <c r="J74" t="s">
-        <v>40</v>
       </c>
       <c r="K74">
         <v>6</v>
       </c>
       <c r="L74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
@@ -5313,34 +5313,34 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" s="1">
         <v>44752</v>
       </c>
       <c r="F75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G75">
         <v>172</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" t="s">
         <v>29</v>
-      </c>
-      <c r="J75" t="s">
-        <v>30</v>
       </c>
       <c r="K75">
         <v>6</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -5363,25 +5363,25 @@
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76" s="1">
         <v>44764</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G76">
         <v>159</v>
       </c>
       <c r="H76" t="s">
+        <v>217</v>
+      </c>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s">
         <v>218</v>
-      </c>
-      <c r="I76" t="s">
-        <v>43</v>
-      </c>
-      <c r="J76" t="s">
-        <v>219</v>
       </c>
       <c r="K76">
         <v>6</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -5404,31 +5404,31 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E77" s="1">
         <v>44852</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G77">
         <v>145</v>
       </c>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
         <v>43</v>
-      </c>
-      <c r="J77" t="s">
-        <v>44</v>
       </c>
       <c r="K77">
         <v>6</v>
       </c>
       <c r="L77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -5445,31 +5445,31 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E78" s="1">
         <v>44695</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G78">
         <v>162</v>
       </c>
       <c r="H78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I78" t="s">
+        <v>85</v>
+      </c>
+      <c r="J78" t="s">
         <v>86</v>
-      </c>
-      <c r="J78" t="s">
-        <v>87</v>
       </c>
       <c r="K78">
         <v>6</v>
       </c>
       <c r="L78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
@@ -5477,28 +5477,28 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" s="1">
         <v>44841</v>
       </c>
       <c r="F79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79">
         <v>175</v>
       </c>
       <c r="H79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
@@ -5518,40 +5518,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="1">
         <v>44685</v>
       </c>
       <c r="F80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G80">
         <v>164</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K80">
         <v>6</v>
       </c>
       <c r="L80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
@@ -5559,34 +5559,34 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" s="1">
         <v>44581</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G81">
         <v>184</v>
       </c>
       <c r="H81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" t="s">
         <v>32</v>
-      </c>
-      <c r="J81" t="s">
-        <v>33</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
@@ -5615,19 +5615,19 @@
         <v>44674</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G82">
         <v>174</v>
       </c>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K82">
         <v>6</v>
@@ -5641,40 +5641,40 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83" s="1">
         <v>44607</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G83">
         <v>192</v>
       </c>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K83">
         <v>6</v>
       </c>
       <c r="L83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
@@ -5682,34 +5682,34 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E84" s="1">
         <v>44742</v>
       </c>
       <c r="F84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G84">
         <v>160</v>
       </c>
       <c r="H84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K84">
         <v>5</v>
@@ -5723,34 +5723,34 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
       </c>
       <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" t="s">
         <v>50</v>
-      </c>
-      <c r="D85" t="s">
-        <v>51</v>
       </c>
       <c r="E85" s="1">
         <v>44781</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G85">
         <v>163</v>
       </c>
       <c r="H85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -5773,25 +5773,25 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E86" s="1">
         <v>44701</v>
       </c>
       <c r="F86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G86">
         <v>187</v>
       </c>
       <c r="H86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -5814,31 +5814,31 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" s="1">
         <v>44836</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G87">
         <v>163</v>
       </c>
       <c r="H87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K87">
         <v>4</v>
       </c>
       <c r="L87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
@@ -5846,40 +5846,40 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
       </c>
       <c r="C88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" t="s">
         <v>61</v>
-      </c>
-      <c r="D88" t="s">
-        <v>62</v>
       </c>
       <c r="E88" s="1">
         <v>44713</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G88">
         <v>156</v>
       </c>
       <c r="H88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I88" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s">
         <v>43</v>
-      </c>
-      <c r="J88" t="s">
-        <v>44</v>
       </c>
       <c r="K88">
         <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
@@ -5896,25 +5896,25 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E89" s="1">
         <v>44896</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>154</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K89">
         <v>5</v>
@@ -5928,28 +5928,28 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
         <v>247</v>
       </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>248</v>
-      </c>
       <c r="D90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E90" s="1">
         <v>44627</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G90">
         <v>166</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -5969,34 +5969,34 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E91" s="1">
         <v>44681</v>
       </c>
       <c r="F91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G91">
         <v>169</v>
       </c>
       <c r="H91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K91">
         <v>3</v>
@@ -6010,34 +6010,34 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E92" s="1">
         <v>44744</v>
       </c>
       <c r="F92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G92">
         <v>144</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -6051,40 +6051,40 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="1">
         <v>44749</v>
       </c>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G93">
         <v>168</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K93">
         <v>6</v>
       </c>
       <c r="L93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
@@ -6092,34 +6092,34 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E94" s="1">
         <v>44769</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>159</v>
       </c>
       <c r="H94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I94" t="s">
+        <v>85</v>
+      </c>
+      <c r="J94" t="s">
         <v>86</v>
-      </c>
-      <c r="J94" t="s">
-        <v>87</v>
       </c>
       <c r="K94">
         <v>5</v>
@@ -6133,40 +6133,40 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" s="1">
         <v>44743</v>
       </c>
       <c r="F95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G95">
         <v>163</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I95" t="s">
         <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K95">
         <v>5</v>
       </c>
       <c r="L95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M95" t="b">
         <v>0</v>
@@ -6174,28 +6174,28 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E96" s="1">
         <v>44808</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G96">
         <v>142</v>
       </c>
       <c r="H96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I96" t="s">
         <v>18</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -6224,25 +6224,25 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E97" s="1">
         <v>44718</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G97">
         <v>163</v>
       </c>
       <c r="H97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -6256,34 +6256,34 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
         <v>262</v>
       </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="s">
-        <v>263</v>
-      </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G98">
         <v>169</v>
       </c>
       <c r="H98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K98">
         <v>6</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
@@ -6312,19 +6312,19 @@
         <v>44752</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G99">
         <v>165</v>
       </c>
       <c r="H99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K99">
         <v>5</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
@@ -6347,25 +6347,25 @@
         <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100" s="1">
         <v>44908</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>131</v>
       </c>
       <c r="H100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -6379,34 +6379,34 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E101" s="1">
         <v>44686</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G101">
         <v>193</v>
       </c>
       <c r="H101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I101" t="s">
         <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -6420,34 +6420,34 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E102" s="1">
         <v>44749</v>
       </c>
       <c r="F102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G102">
         <v>181</v>
       </c>
       <c r="H102" t="s">
+        <v>271</v>
+      </c>
+      <c r="I102" t="s">
+        <v>38</v>
+      </c>
+      <c r="J102" t="s">
         <v>272</v>
-      </c>
-      <c r="I102" t="s">
-        <v>39</v>
-      </c>
-      <c r="J102" t="s">
-        <v>273</v>
       </c>
       <c r="K102">
         <v>5</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
@@ -6470,25 +6470,25 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103" s="1">
         <v>44737</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G103">
         <v>153</v>
       </c>
       <c r="H103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I103" t="s">
+        <v>38</v>
+      </c>
+      <c r="J103" t="s">
         <v>39</v>
-      </c>
-      <c r="J103" t="s">
-        <v>40</v>
       </c>
       <c r="K103">
         <v>4</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -6517,19 +6517,19 @@
         <v>44851</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G104">
         <v>160</v>
       </c>
       <c r="H104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K104">
         <v>6</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s">
         <v>13</v>
@@ -6558,19 +6558,19 @@
         <v>44784</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G105">
         <v>160</v>
       </c>
       <c r="H105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K105">
         <v>4</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -6593,25 +6593,25 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E106" s="1">
         <v>44590</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>163</v>
       </c>
       <c r="H106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K106">
         <v>4</v>
@@ -6625,40 +6625,40 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E107" s="1">
         <v>44736</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G107">
         <v>162</v>
       </c>
       <c r="H107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I107" t="s">
         <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K107">
         <v>5</v>
       </c>
       <c r="L107" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M107" t="b">
         <v>0</v>
@@ -6666,28 +6666,28 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E108" s="1">
         <v>44920</v>
       </c>
       <c r="F108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G108">
         <v>190</v>
       </c>
       <c r="H108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
@@ -6707,40 +6707,40 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
         <v>287</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" t="s">
-        <v>288</v>
       </c>
       <c r="E109" s="1">
         <v>44829</v>
       </c>
       <c r="F109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G109">
         <v>162</v>
       </c>
       <c r="H109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I109" t="s">
         <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K109">
         <v>5</v>
       </c>
       <c r="L109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
@@ -6748,34 +6748,34 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
       </c>
       <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" t="s">
         <v>61</v>
-      </c>
-      <c r="D110" t="s">
-        <v>62</v>
       </c>
       <c r="E110" s="1">
         <v>44682</v>
       </c>
       <c r="F110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G110">
         <v>151</v>
       </c>
       <c r="H110" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I110" t="s">
+        <v>38</v>
+      </c>
+      <c r="J110" t="s">
         <v>39</v>
-      </c>
-      <c r="J110" t="s">
-        <v>40</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -6789,34 +6789,34 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
         <v>292</v>
       </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>293</v>
-      </c>
       <c r="D111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E111" s="1">
         <v>44896</v>
       </c>
       <c r="F111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G111">
         <v>162</v>
       </c>
       <c r="H111" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I111" t="s">
+        <v>123</v>
+      </c>
+      <c r="J111" t="s">
         <v>124</v>
-      </c>
-      <c r="J111" t="s">
-        <v>125</v>
       </c>
       <c r="K111">
         <v>5</v>
@@ -6830,34 +6830,34 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112" s="1">
         <v>44849</v>
       </c>
       <c r="F112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G112">
         <v>163</v>
       </c>
       <c r="H112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I112" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" t="s">
         <v>32</v>
-      </c>
-      <c r="J112" t="s">
-        <v>33</v>
       </c>
       <c r="K112">
         <v>5</v>
@@ -6871,34 +6871,34 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E113" s="1">
         <v>44907</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>170</v>
       </c>
       <c r="H113" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>6</v>
@@ -6912,34 +6912,34 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E114" s="1">
         <v>44850</v>
       </c>
       <c r="F114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G114">
         <v>172</v>
       </c>
       <c r="H114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K114">
         <v>5</v>
@@ -6953,34 +6953,34 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E115" s="1">
         <v>44596</v>
       </c>
       <c r="F115" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G115">
         <v>189</v>
       </c>
       <c r="H115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
       </c>
       <c r="J115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K115">
         <v>5</v>
@@ -6994,34 +6994,34 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E116" s="1">
         <v>44574</v>
       </c>
       <c r="F116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G116">
         <v>160</v>
       </c>
       <c r="H116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K116">
         <v>4</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -7044,25 +7044,25 @@
         <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E117" s="1">
         <v>44879</v>
       </c>
       <c r="F117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G117">
         <v>162</v>
       </c>
       <c r="H117" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I117" t="s">
+        <v>38</v>
+      </c>
+      <c r="J117" t="s">
         <v>39</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
       </c>
       <c r="K117">
         <v>5</v>
@@ -7076,34 +7076,34 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D118" t="s">
+        <v>61</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" t="s">
         <v>62</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F118" t="s">
-        <v>63</v>
       </c>
       <c r="G118">
         <v>172</v>
       </c>
       <c r="H118" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
       </c>
       <c r="J118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K118">
         <v>5</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -7126,25 +7126,25 @@
         <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" s="1">
         <v>44851</v>
       </c>
       <c r="F119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G119">
         <v>155</v>
       </c>
       <c r="H119" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K119">
         <v>5</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -7167,25 +7167,25 @@
         <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E120" s="1">
         <v>44743</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G120">
         <v>183</v>
       </c>
       <c r="H120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -7208,25 +7208,25 @@
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="1">
         <v>44645</v>
       </c>
       <c r="F121" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G121">
         <v>161</v>
       </c>
       <c r="H121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J121" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K121">
         <v>6</v>
@@ -7240,34 +7240,34 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E122" s="1">
         <v>44813</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>165</v>
       </c>
       <c r="H122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I122" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" t="s">
         <v>32</v>
-      </c>
-      <c r="J122" t="s">
-        <v>33</v>
       </c>
       <c r="K122">
         <v>6</v>
@@ -7281,34 +7281,34 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E123" s="1">
         <v>44625</v>
       </c>
       <c r="F123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G123">
         <v>171</v>
       </c>
       <c r="H123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J123" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K123">
         <v>5</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
@@ -7331,31 +7331,31 @@
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E124" s="1">
         <v>44623</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G124">
         <v>153</v>
       </c>
       <c r="H124" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I124" t="s">
+        <v>42</v>
+      </c>
+      <c r="J124" t="s">
         <v>43</v>
-      </c>
-      <c r="J124" t="s">
-        <v>44</v>
       </c>
       <c r="K124">
         <v>6</v>
       </c>
       <c r="L124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M124" t="b">
         <v>0</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
@@ -7372,25 +7372,25 @@
         <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E125" s="1">
         <v>44858</v>
       </c>
       <c r="F125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G125">
         <v>155</v>
       </c>
       <c r="H125" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I125" t="s">
         <v>18</v>
       </c>
       <c r="J125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -7404,7 +7404,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B126" t="s">
         <v>13</v>
@@ -7413,25 +7413,25 @@
         <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E126" s="1">
         <v>44655</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>161</v>
       </c>
       <c r="H126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
       </c>
       <c r="J126" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K126">
         <v>4</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
@@ -7454,25 +7454,25 @@
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E127" s="1">
         <v>44907</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G127">
         <v>161</v>
       </c>
       <c r="H127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
       </c>
       <c r="J127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K127">
         <v>5</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -7495,25 +7495,25 @@
         <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E128" s="1">
         <v>44673</v>
       </c>
       <c r="F128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G128">
         <v>189</v>
       </c>
       <c r="H128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K128">
         <v>5</v>
@@ -7527,34 +7527,34 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E129" s="1">
         <v>44759</v>
       </c>
       <c r="F129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G129">
         <v>167</v>
       </c>
       <c r="H129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J129" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K129">
         <v>6</v>
@@ -7568,28 +7568,28 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>145</v>
       </c>
       <c r="H130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I130" t="s">
         <v>22</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
@@ -7624,19 +7624,19 @@
         <v>44683</v>
       </c>
       <c r="F131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G131">
         <v>155</v>
       </c>
       <c r="H131" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I131" t="s">
         <v>22</v>
       </c>
       <c r="J131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
@@ -7659,25 +7659,25 @@
         <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E132" s="1">
         <v>44863</v>
       </c>
       <c r="F132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G132">
         <v>138</v>
       </c>
       <c r="H132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J132" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K132">
         <v>5</v>
@@ -7691,34 +7691,34 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E133" s="1">
         <v>44580</v>
       </c>
       <c r="F133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G133">
         <v>185</v>
       </c>
       <c r="H133" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I133" t="s">
+        <v>123</v>
+      </c>
+      <c r="J133" t="s">
         <v>124</v>
-      </c>
-      <c r="J133" t="s">
-        <v>125</v>
       </c>
       <c r="K133">
         <v>6</v>
@@ -7732,13 +7732,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
@@ -7756,10 +7756,10 @@
         <v>17</v>
       </c>
       <c r="I134" t="s">
+        <v>123</v>
+      </c>
+      <c r="J134" t="s">
         <v>124</v>
-      </c>
-      <c r="J134" t="s">
-        <v>125</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
@@ -7782,25 +7782,25 @@
         <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E135" s="1">
         <v>44689</v>
       </c>
       <c r="F135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G135">
         <v>187</v>
       </c>
       <c r="H135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K135">
         <v>5</v>
@@ -7814,34 +7814,34 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>328</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
         <v>329</v>
       </c>
-      <c r="B136" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" t="s">
-        <v>330</v>
-      </c>
       <c r="D136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G136">
         <v>165</v>
       </c>
       <c r="H136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K136">
         <v>6</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B137" t="s">
         <v>13</v>
@@ -7864,25 +7864,25 @@
         <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E137" s="1">
         <v>44584</v>
       </c>
       <c r="F137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G137">
         <v>155</v>
       </c>
       <c r="H137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
@@ -7905,25 +7905,25 @@
         <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E138" s="1">
         <v>44772</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>156</v>
       </c>
       <c r="H138" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K138">
         <v>5</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
@@ -7946,25 +7946,25 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E139" s="1">
         <v>44684</v>
       </c>
       <c r="F139" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G139">
         <v>165</v>
       </c>
       <c r="H139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K139">
         <v>5</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B140" t="s">
         <v>13</v>
@@ -7987,25 +7987,25 @@
         <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E140" s="1">
         <v>44645</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G140">
         <v>145</v>
       </c>
       <c r="H140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I140" t="s">
+        <v>85</v>
+      </c>
+      <c r="J140" t="s">
         <v>86</v>
-      </c>
-      <c r="J140" t="s">
-        <v>87</v>
       </c>
       <c r="K140">
         <v>4</v>
@@ -8019,40 +8019,40 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>335</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
         <v>336</v>
       </c>
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>337</v>
-      </c>
       <c r="D141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E141" s="1">
         <v>44875</v>
       </c>
       <c r="F141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G141">
         <v>159</v>
       </c>
       <c r="H141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I141" t="s">
+        <v>42</v>
+      </c>
+      <c r="J141" t="s">
         <v>43</v>
-      </c>
-      <c r="J141" t="s">
-        <v>44</v>
       </c>
       <c r="K141">
         <v>5</v>
       </c>
       <c r="L141" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M141" t="b">
         <v>0</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B142" t="s">
         <v>13</v>
@@ -8069,31 +8069,31 @@
         <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E142" s="1">
         <v>44786</v>
       </c>
       <c r="F142" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G142">
         <v>165</v>
       </c>
       <c r="H142" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>5</v>
       </c>
       <c r="L142" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M142" t="b">
         <v>0</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
@@ -8110,31 +8110,31 @@
         <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E143" s="1">
         <v>44865</v>
       </c>
       <c r="F143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G143">
         <v>174</v>
       </c>
       <c r="H143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J143" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K143">
         <v>6</v>
       </c>
       <c r="L143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M143" t="b">
         <v>0</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B144" t="s">
         <v>13</v>
@@ -8151,25 +8151,25 @@
         <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E144" s="1">
         <v>44690</v>
       </c>
       <c r="F144" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G144">
         <v>144</v>
       </c>
       <c r="H144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J144" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K144">
         <v>4</v>
@@ -8183,28 +8183,28 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>345</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
         <v>346</v>
       </c>
-      <c r="B145" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" t="s">
-        <v>347</v>
-      </c>
       <c r="D145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E145" s="1">
         <v>44781</v>
       </c>
       <c r="F145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G145">
         <v>164</v>
       </c>
       <c r="H145" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I145" t="s">
         <v>18</v>
@@ -8216,7 +8216,7 @@
         <v>5</v>
       </c>
       <c r="L145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M145" t="b">
         <v>0</v>
@@ -8224,34 +8224,34 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B146" t="s">
         <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E146" s="1">
         <v>44859</v>
       </c>
       <c r="F146" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G146">
         <v>173</v>
       </c>
       <c r="H146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I146" t="s">
         <v>22</v>
       </c>
       <c r="J146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K146">
         <v>5</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -8274,31 +8274,31 @@
         <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E147" s="1">
         <v>44843</v>
       </c>
       <c r="F147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G147">
         <v>137</v>
       </c>
       <c r="H147" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I147" t="s">
+        <v>85</v>
+      </c>
+      <c r="J147" t="s">
         <v>86</v>
-      </c>
-      <c r="J147" t="s">
-        <v>87</v>
       </c>
       <c r="K147">
         <v>6</v>
       </c>
       <c r="L147" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M147" t="b">
         <v>0</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B148" t="s">
         <v>13</v>
@@ -8315,25 +8315,25 @@
         <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E148" s="1">
         <v>44926</v>
       </c>
       <c r="F148" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G148">
         <v>154</v>
       </c>
       <c r="H148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K148">
         <v>5</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B149" t="s">
         <v>13</v>
@@ -8356,25 +8356,25 @@
         <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E149" s="1">
         <v>44819</v>
       </c>
       <c r="F149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G149">
         <v>157</v>
       </c>
       <c r="H149" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K149">
         <v>5</v>
@@ -8388,34 +8388,34 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D150" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E150" s="1">
         <v>44813</v>
       </c>
       <c r="F150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G150">
         <v>182</v>
       </c>
       <c r="H150" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I150" t="s">
+        <v>28</v>
+      </c>
+      <c r="J150" t="s">
         <v>29</v>
-      </c>
-      <c r="J150" t="s">
-        <v>30</v>
       </c>
       <c r="K150">
         <v>5</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -8438,25 +8438,25 @@
         <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E151" s="1">
         <v>44821</v>
       </c>
       <c r="F151" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G151">
         <v>174</v>
       </c>
       <c r="H151" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J151" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K151">
         <v>4</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
@@ -8479,25 +8479,25 @@
         <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E152" s="1">
         <v>44881</v>
       </c>
       <c r="F152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G152">
         <v>166</v>
       </c>
       <c r="H152" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K152">
         <v>5</v>
@@ -8511,34 +8511,34 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E153" s="1">
         <v>44637</v>
       </c>
       <c r="F153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G153">
         <v>177</v>
       </c>
       <c r="H153" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I153" t="s">
         <v>22</v>
       </c>
       <c r="J153" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K153">
         <v>6</v>
@@ -8552,13 +8552,13 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
@@ -8567,19 +8567,19 @@
         <v>44786</v>
       </c>
       <c r="F154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G154">
         <v>150</v>
       </c>
       <c r="H154" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K154">
         <v>4</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B155" t="s">
         <v>13</v>
@@ -8602,25 +8602,25 @@
         <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E155" s="1">
         <v>44594</v>
       </c>
       <c r="F155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G155">
         <v>142</v>
       </c>
       <c r="H155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I155" t="s">
+        <v>42</v>
+      </c>
+      <c r="J155" t="s">
         <v>43</v>
-      </c>
-      <c r="J155" t="s">
-        <v>44</v>
       </c>
       <c r="K155">
         <v>5</v>
@@ -8634,40 +8634,40 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D156" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E156" s="1">
         <v>44821</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G156">
         <v>144</v>
       </c>
       <c r="H156" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I156" t="s">
         <v>22</v>
       </c>
       <c r="J156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K156">
         <v>5</v>
       </c>
       <c r="L156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M156" t="b">
         <v>0</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
@@ -8684,25 +8684,25 @@
         <v>17</v>
       </c>
       <c r="D157" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E157" s="1">
         <v>44864</v>
       </c>
       <c r="F157" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G157">
         <v>171</v>
       </c>
       <c r="H157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J157" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K157">
         <v>6</v>
@@ -8716,34 +8716,34 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B158" t="s">
         <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E158" s="1">
         <v>44811</v>
       </c>
       <c r="F158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G158">
         <v>161</v>
       </c>
       <c r="H158" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I158" t="s">
         <v>22</v>
       </c>
       <c r="J158" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K158">
         <v>4</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
@@ -8766,25 +8766,25 @@
         <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E159" s="1">
         <v>44597</v>
       </c>
       <c r="F159" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G159">
         <v>155</v>
       </c>
       <c r="H159" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K159">
         <v>5</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
@@ -8807,25 +8807,25 @@
         <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E160" s="1">
         <v>44588</v>
       </c>
       <c r="F160" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G160">
         <v>157</v>
       </c>
       <c r="H160" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I160" t="s">
+        <v>38</v>
+      </c>
+      <c r="J160" t="s">
         <v>39</v>
-      </c>
-      <c r="J160" t="s">
-        <v>40</v>
       </c>
       <c r="K160">
         <v>5</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
@@ -8848,25 +8848,25 @@
         <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E161" s="1">
         <v>44583</v>
       </c>
       <c r="F161" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G161">
         <v>162</v>
       </c>
       <c r="H161" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I161" t="s">
         <v>22</v>
       </c>
       <c r="J161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K161">
         <v>6</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
@@ -8889,25 +8889,25 @@
         <v>17</v>
       </c>
       <c r="D162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E162" s="1">
         <v>44639</v>
       </c>
       <c r="F162" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G162">
         <v>135</v>
       </c>
       <c r="H162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I162" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" t="s">
         <v>32</v>
-      </c>
-      <c r="J162" t="s">
-        <v>33</v>
       </c>
       <c r="K162">
         <v>4</v>
@@ -8921,40 +8921,40 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>377</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
         <v>378</v>
       </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>379</v>
-      </c>
       <c r="D163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E163" s="1">
         <v>44740</v>
       </c>
       <c r="F163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G163">
         <v>165</v>
       </c>
       <c r="H163" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I163" t="s">
         <v>22</v>
       </c>
       <c r="J163" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K163">
         <v>5</v>
       </c>
       <c r="L163" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M163" t="b">
         <v>0</v>
@@ -8962,34 +8962,34 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
       </c>
       <c r="C164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E164" s="1">
         <v>44690</v>
       </c>
       <c r="F164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G164">
         <v>177</v>
       </c>
       <c r="H164" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J164" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K164">
         <v>5</v>
@@ -9003,40 +9003,40 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B165" t="s">
         <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E165" s="1">
         <v>44757</v>
       </c>
       <c r="F165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G165">
         <v>165</v>
       </c>
       <c r="H165" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K165">
         <v>6</v>
       </c>
       <c r="L165" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M165" t="b">
         <v>0</v>
@@ -9044,13 +9044,13 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B166" t="s">
         <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
@@ -9059,19 +9059,19 @@
         <v>44748</v>
       </c>
       <c r="F166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G166">
         <v>142</v>
       </c>
       <c r="H166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J166" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K166">
         <v>6</v>
@@ -9085,34 +9085,34 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E167" s="1">
         <v>44825</v>
       </c>
       <c r="F167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G167">
         <v>163</v>
       </c>
       <c r="H167" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K167">
         <v>6</v>
@@ -9126,7 +9126,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
@@ -9135,25 +9135,25 @@
         <v>17</v>
       </c>
       <c r="D168" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E168" s="1">
         <v>44623</v>
       </c>
       <c r="F168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G168">
         <v>169</v>
       </c>
       <c r="H168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I168" t="s">
         <v>18</v>
       </c>
       <c r="J168" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K168">
         <v>5</v>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B169" t="s">
         <v>13</v>
@@ -9182,19 +9182,19 @@
         <v>44819</v>
       </c>
       <c r="F169" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G169">
         <v>157</v>
       </c>
       <c r="H169" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I169" t="s">
         <v>22</v>
       </c>
       <c r="J169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K169">
         <v>4</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
@@ -9223,25 +9223,25 @@
         <v>44632</v>
       </c>
       <c r="F170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G170">
         <v>148</v>
       </c>
       <c r="H170" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K170">
         <v>4</v>
       </c>
       <c r="L170" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M170" t="b">
         <v>0</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
@@ -9264,19 +9264,19 @@
         <v>44896</v>
       </c>
       <c r="F171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G171">
         <v>149</v>
       </c>
       <c r="H171" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I171" t="s">
+        <v>123</v>
+      </c>
+      <c r="J171" t="s">
         <v>124</v>
-      </c>
-      <c r="J171" t="s">
-        <v>125</v>
       </c>
       <c r="K171">
         <v>5</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B172" t="s">
         <v>13</v>
@@ -9305,19 +9305,19 @@
         <v>44699</v>
       </c>
       <c r="F172" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G172">
         <v>155</v>
       </c>
       <c r="H172" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J172" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K172">
         <v>5</v>
@@ -9331,13 +9331,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
       </c>
       <c r="C173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
@@ -9346,25 +9346,25 @@
         <v>44758</v>
       </c>
       <c r="F173" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G173">
         <v>195</v>
       </c>
       <c r="H173" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I173" t="s">
         <v>22</v>
       </c>
       <c r="J173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K173">
         <v>6</v>
       </c>
       <c r="L173" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M173" t="b">
         <v>0</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B174" t="s">
         <v>13</v>
@@ -9387,19 +9387,19 @@
         <v>44630</v>
       </c>
       <c r="F174" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G174">
         <v>155</v>
       </c>
       <c r="H174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K174">
         <v>4</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
@@ -9422,25 +9422,25 @@
         <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E175" s="1">
         <v>44653</v>
       </c>
       <c r="F175" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G175">
         <v>147</v>
       </c>
       <c r="H175" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J175" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K175">
         <v>5</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
@@ -9463,25 +9463,25 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E176" s="1">
         <v>44881</v>
       </c>
       <c r="F176" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G176">
         <v>152</v>
       </c>
       <c r="H176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I176" t="s">
+        <v>38</v>
+      </c>
+      <c r="J176" t="s">
         <v>39</v>
-      </c>
-      <c r="J176" t="s">
-        <v>40</v>
       </c>
       <c r="K176">
         <v>6</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
@@ -9504,19 +9504,19 @@
         <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E177" s="1">
         <v>44666</v>
       </c>
       <c r="F177" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G177">
         <v>153</v>
       </c>
       <c r="H177" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I177" t="s">
         <v>18</v>
@@ -9536,34 +9536,34 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B178" t="s">
         <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D178" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E178" s="1">
         <v>44574</v>
       </c>
       <c r="F178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G178">
         <v>187</v>
       </c>
       <c r="H178" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J178" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K178">
         <v>5</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
@@ -9586,25 +9586,25 @@
         <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E179" s="1">
         <v>44926</v>
       </c>
       <c r="F179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G179">
         <v>164</v>
       </c>
       <c r="H179" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I179" t="s">
+        <v>28</v>
+      </c>
+      <c r="J179" t="s">
         <v>29</v>
-      </c>
-      <c r="J179" t="s">
-        <v>30</v>
       </c>
       <c r="K179">
         <v>6</v>
@@ -9618,34 +9618,34 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D180" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E180" s="1">
         <v>44876</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>162</v>
       </c>
       <c r="H180" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>6</v>
@@ -9659,34 +9659,34 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E181" s="1">
         <v>44868</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>183</v>
       </c>
       <c r="H181" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I181" t="s">
         <v>22</v>
       </c>
       <c r="J181" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K181">
         <v>5</v>
@@ -9700,34 +9700,34 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B182" t="s">
         <v>20</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E182" s="1">
         <v>44653</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G182">
         <v>175</v>
       </c>
       <c r="H182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I182" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" t="s">
         <v>32</v>
-      </c>
-      <c r="J182" t="s">
-        <v>33</v>
       </c>
       <c r="K182">
         <v>5</v>
@@ -9741,40 +9741,40 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B183" t="s">
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E183" s="1">
         <v>44685</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G183">
         <v>173</v>
       </c>
       <c r="H183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I183" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J183" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K183">
         <v>5</v>
       </c>
       <c r="L183" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M183" t="b">
         <v>0</v>
@@ -9782,40 +9782,40 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B184" t="s">
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E184" s="1">
         <v>44919</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G184">
         <v>170</v>
       </c>
       <c r="H184" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I184" t="s">
+        <v>38</v>
+      </c>
+      <c r="J184" t="s">
         <v>39</v>
-      </c>
-      <c r="J184" t="s">
-        <v>40</v>
       </c>
       <c r="K184">
         <v>6</v>
       </c>
       <c r="L184" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M184" t="b">
         <v>0</v>
@@ -9823,34 +9823,34 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E185" s="1">
         <v>44623</v>
       </c>
       <c r="F185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G185">
         <v>159</v>
       </c>
       <c r="H185" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I185" t="s">
+        <v>31</v>
+      </c>
+      <c r="J185" t="s">
         <v>32</v>
-      </c>
-      <c r="J185" t="s">
-        <v>33</v>
       </c>
       <c r="K185">
         <v>5</v>
@@ -9864,7 +9864,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
@@ -9873,31 +9873,31 @@
         <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E186" s="1">
         <v>44773</v>
       </c>
       <c r="F186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G186">
         <v>168</v>
       </c>
       <c r="H186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J186" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K186">
         <v>5</v>
       </c>
       <c r="L186" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M186" t="b">
         <v>0</v>
@@ -9905,13 +9905,13 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -9920,25 +9920,25 @@
         <v>44805</v>
       </c>
       <c r="F187" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G187">
         <v>187</v>
       </c>
       <c r="H187" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K187">
         <v>6</v>
       </c>
       <c r="L187" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M187" t="b">
         <v>0</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
@@ -9955,25 +9955,25 @@
         <v>25</v>
       </c>
       <c r="D188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E188" s="1">
         <v>44647</v>
       </c>
       <c r="F188" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G188">
         <v>176</v>
       </c>
       <c r="H188" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I188" t="s">
         <v>22</v>
       </c>
       <c r="J188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K188">
         <v>5</v>
@@ -9987,34 +9987,34 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>419</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
         <v>420</v>
       </c>
-      <c r="B189" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" t="s">
-        <v>421</v>
-      </c>
       <c r="D189" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E189" s="1">
         <v>44871</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>181</v>
       </c>
       <c r="H189" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I189" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J189" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K189">
         <v>6</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B190" t="s">
         <v>13</v>
@@ -10037,19 +10037,19 @@
         <v>21</v>
       </c>
       <c r="D190" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G190">
         <v>169</v>
       </c>
       <c r="H190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I190" t="s">
         <v>18</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B191" t="s">
         <v>13</v>
@@ -10078,25 +10078,25 @@
         <v>17</v>
       </c>
       <c r="D191" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E191" s="1">
         <v>44834</v>
       </c>
       <c r="F191" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G191">
         <v>167</v>
       </c>
       <c r="H191" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J191" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K191">
         <v>4</v>
@@ -10110,7 +10110,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B192" t="s">
         <v>13</v>
@@ -10119,25 +10119,25 @@
         <v>17</v>
       </c>
       <c r="D192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E192" s="1">
         <v>44654</v>
       </c>
       <c r="F192" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G192">
         <v>143</v>
       </c>
       <c r="H192" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I192" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J192" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K192">
         <v>5</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B193" t="s">
         <v>13</v>
@@ -10160,25 +10160,25 @@
         <v>17</v>
       </c>
       <c r="D193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E193" s="1">
         <v>44894</v>
       </c>
       <c r="F193" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G193">
         <v>160</v>
       </c>
       <c r="H193" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I193" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K193">
         <v>5</v>
@@ -10192,34 +10192,34 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D194" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E194" s="1">
         <v>44578</v>
       </c>
       <c r="F194" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G194">
         <v>173</v>
       </c>
       <c r="H194" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J194" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K194">
         <v>6</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B195" t="s">
         <v>13</v>
@@ -10242,25 +10242,25 @@
         <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E195" s="1">
         <v>44600</v>
       </c>
       <c r="F195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G195">
         <v>162</v>
       </c>
       <c r="H195" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I195" t="s">
         <v>22</v>
       </c>
       <c r="J195" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K195">
         <v>6</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B196" t="s">
         <v>20</v>
@@ -10283,25 +10283,25 @@
         <v>17</v>
       </c>
       <c r="D196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E196" s="1">
         <v>44642</v>
       </c>
       <c r="F196" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G196">
         <v>161</v>
       </c>
       <c r="H196" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I196" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K196">
         <v>6</v>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B197" t="s">
         <v>13</v>
@@ -10324,25 +10324,25 @@
         <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E197" s="1">
         <v>44802</v>
       </c>
       <c r="F197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G197">
         <v>166</v>
       </c>
       <c r="H197" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I197" t="s">
         <v>22</v>
       </c>
       <c r="J197" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K197">
         <v>5</v>
@@ -10356,7 +10356,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B198" t="s">
         <v>20</v>
@@ -10365,25 +10365,25 @@
         <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E198" s="1">
         <v>44696</v>
       </c>
       <c r="F198" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G198">
         <v>182</v>
       </c>
       <c r="H198" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I198" t="s">
         <v>22</v>
       </c>
       <c r="J198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K198">
         <v>5</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B199" t="s">
         <v>13</v>
@@ -10412,19 +10412,19 @@
         <v>44691</v>
       </c>
       <c r="F199" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G199">
         <v>155</v>
       </c>
       <c r="H199" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I199" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -10438,7 +10438,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B200" t="s">
         <v>13</v>
@@ -10447,25 +10447,25 @@
         <v>17</v>
       </c>
       <c r="D200" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E200" s="1">
         <v>44738</v>
       </c>
       <c r="F200" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G200">
         <v>158</v>
       </c>
       <c r="H200" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I200" t="s">
         <v>18</v>
       </c>
       <c r="J200" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K200">
         <v>5</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B201" t="s">
         <v>13</v>
@@ -10488,25 +10488,25 @@
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E201" s="1">
         <v>44712</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G201">
         <v>166</v>
       </c>
       <c r="H201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J201" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K201">
         <v>6</v>
@@ -10520,34 +10520,34 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B202" t="s">
         <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D202" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E202" s="1">
         <v>44640</v>
       </c>
       <c r="F202" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G202">
         <v>164</v>
       </c>
       <c r="H202" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J202" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K202">
         <v>5</v>
@@ -10561,34 +10561,34 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B203" t="s">
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E203" s="1">
         <v>44844</v>
       </c>
       <c r="F203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G203">
         <v>155</v>
       </c>
       <c r="H203" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J203" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K203">
         <v>6</v>
@@ -10602,34 +10602,34 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B204" t="s">
         <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E204" s="1">
         <v>44842</v>
       </c>
       <c r="F204" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G204">
         <v>159</v>
       </c>
       <c r="H204" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I204" t="s">
+        <v>28</v>
+      </c>
+      <c r="J204" t="s">
         <v>29</v>
-      </c>
-      <c r="J204" t="s">
-        <v>30</v>
       </c>
       <c r="K204">
         <v>6</v>
@@ -10643,13 +10643,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
       </c>
       <c r="C205" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
@@ -10658,19 +10658,19 @@
         <v>44658</v>
       </c>
       <c r="F205" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G205">
         <v>172</v>
       </c>
       <c r="H205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I205" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J205" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K205">
         <v>5</v>
@@ -10684,34 +10684,34 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B206" t="s">
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D206" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E206" s="1">
         <v>44776</v>
       </c>
       <c r="F206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G206">
         <v>158</v>
       </c>
       <c r="H206" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K206">
         <v>5</v>
@@ -10725,13 +10725,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>447</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
         <v>448</v>
-      </c>
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" t="s">
-        <v>449</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
@@ -10749,10 +10749,10 @@
         <v>17</v>
       </c>
       <c r="I207" t="s">
+        <v>38</v>
+      </c>
+      <c r="J207" t="s">
         <v>39</v>
-      </c>
-      <c r="J207" t="s">
-        <v>40</v>
       </c>
       <c r="K207">
         <v>1</v>
@@ -10766,7 +10766,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B208" t="s">
         <v>13</v>
@@ -10781,19 +10781,19 @@
         <v>44916</v>
       </c>
       <c r="F208" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G208">
         <v>156</v>
       </c>
       <c r="H208" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J208" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K208">
         <v>4</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B209" t="s">
         <v>13</v>
@@ -10816,25 +10816,25 @@
         <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E209" s="1">
         <v>44640</v>
       </c>
       <c r="F209" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G209">
         <v>155</v>
       </c>
       <c r="H209" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I209" t="s">
         <v>18</v>
       </c>
       <c r="J209" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K209">
         <v>5</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B210" t="s">
         <v>13</v>
@@ -10857,25 +10857,25 @@
         <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E210" s="1">
         <v>44900</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G210">
         <v>165</v>
       </c>
       <c r="H210" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J210" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K210">
         <v>5</v>
@@ -10889,34 +10889,34 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B211" t="s">
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D211" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E211" s="1">
         <v>44915</v>
       </c>
       <c r="F211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G211">
         <v>169</v>
       </c>
       <c r="H211" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J211" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K211">
         <v>5</v>
@@ -10930,7 +10930,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B212" t="s">
         <v>20</v>
@@ -10939,25 +10939,25 @@
         <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E212" s="1">
         <v>44906</v>
       </c>
       <c r="F212" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G212">
         <v>188</v>
       </c>
       <c r="H212" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -10971,34 +10971,34 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B213" t="s">
         <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E213" s="1">
         <v>44637</v>
       </c>
       <c r="F213" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G213">
         <v>164</v>
       </c>
       <c r="H213" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I213" t="s">
         <v>22</v>
       </c>
       <c r="J213" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K213">
         <v>5</v>
@@ -11012,34 +11012,34 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B214" t="s">
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D214" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E214" s="1">
         <v>44734</v>
       </c>
       <c r="F214" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G214">
         <v>158</v>
       </c>
       <c r="H214" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>5</v>
@@ -11053,34 +11053,34 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B215" t="s">
         <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D215" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E215" s="1">
         <v>44627</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215">
         <v>166</v>
       </c>
       <c r="H215" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I215" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J215" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K215">
         <v>6</v>
@@ -11094,40 +11094,40 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B216" t="s">
         <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D216" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E216" s="1">
         <v>44749</v>
       </c>
       <c r="F216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G216">
         <v>168</v>
       </c>
       <c r="H216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I216" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K216">
         <v>6</v>
       </c>
       <c r="L216" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M216" t="b">
         <v>1</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B217" t="s">
         <v>13</v>
@@ -11144,19 +11144,19 @@
         <v>25</v>
       </c>
       <c r="D217" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E217" s="1">
         <v>44674</v>
       </c>
       <c r="F217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G217">
         <v>171</v>
       </c>
       <c r="H217" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I217" t="s">
         <v>22</v>
@@ -11168,10 +11168,51 @@
         <v>6</v>
       </c>
       <c r="L217" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M217" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>462</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" t="s">
+        <v>211</v>
+      </c>
+      <c r="E218" s="1">
+        <v>44903</v>
+      </c>
+      <c r="F218" t="s">
+        <v>90</v>
+      </c>
+      <c r="G218">
+        <v>172</v>
+      </c>
+      <c r="H218" t="s">
+        <v>102</v>
+      </c>
+      <c r="I218" t="s">
+        <v>85</v>
+      </c>
+      <c r="J218" t="s">
+        <v>333</v>
+      </c>
+      <c r="K218">
+        <v>5</v>
+      </c>
+      <c r="L218" t="s">
+        <v>17</v>
+      </c>
+      <c r="M218" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WriteData/operators.xlsx
+++ b/WriteData/operators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Web\ArknightsTools\WriteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD429EF-B5F9-44CF-BDF8-D54DF8DD91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140644EF-0C15-427B-9145-CB5457B607E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="464">
   <si>
     <t>codeName</t>
   </si>
@@ -1409,6 +1409,9 @@
   </si>
   <si>
     <t>Nine-Colored Deer</t>
+  </si>
+  <si>
+    <t>Shalem</t>
   </si>
 </sst>
 </file>
@@ -2253,11 +2256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7106,7 +7109,7 @@
         <v>118</v>
       </c>
       <c r="K118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -11212,6 +11215,47 @@
         <v>17</v>
       </c>
       <c r="M218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>463</v>
+      </c>
+      <c r="B219" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>113</v>
+      </c>
+      <c r="D219" t="s">
+        <v>61</v>
+      </c>
+      <c r="E219" s="1">
+        <v>44904</v>
+      </c>
+      <c r="F219" t="s">
+        <v>366</v>
+      </c>
+      <c r="G219">
+        <v>179</v>
+      </c>
+      <c r="H219" t="s">
+        <v>240</v>
+      </c>
+      <c r="I219" t="s">
+        <v>31</v>
+      </c>
+      <c r="J219" t="s">
+        <v>278</v>
+      </c>
+      <c r="K219">
+        <v>5</v>
+      </c>
+      <c r="L219" t="s">
+        <v>17</v>
+      </c>
+      <c r="M219" t="b">
         <v>0</v>
       </c>
     </row>
